--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output-2.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output-2.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1932,7 +1932,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2214,7 +2214,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2340,7 +2340,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2707,7 +2707,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
